--- a/nano/EDA/BoSLnano BOM Rev 0.1.0.xlsx
+++ b/nano/EDA/BoSLnano BOM Rev 0.1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Repositories\BoSL-nano\EDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Repositories\BoSL-nano\nano\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19857E7-0A72-4CFB-8430-F7E4F3447ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8D81A3-DEEE-42DC-9FD7-1EBEDE80EC32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,7 +900,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/nano/EDA/BoSLnano BOM Rev 0.1.0.xlsx
+++ b/nano/EDA/BoSLnano BOM Rev 0.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Repositories\BoSL-nano\nano\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7CDEBB-81F0-42F9-8565-3ABE69FE8127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D25860-2177-43D5-A85C-C40F6BF30B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
   <si>
     <t>Part Number</t>
   </si>
@@ -37,15 +37,6 @@
     <t xml:space="preserve">Supplier </t>
   </si>
   <si>
-    <t>DC Barrel Jack</t>
-  </si>
-  <si>
-    <t>2.1mm</t>
-  </si>
-  <si>
-    <t>https://www.altronics.com.au/p/p0620-2.1mm-female-plastic-pcb-mount-dc-power-socket/</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -401,6 +392,36 @@
   </si>
   <si>
     <t>32.768kHz</t>
+  </si>
+  <si>
+    <t>MAX40203ANS</t>
+  </si>
+  <si>
+    <t>WLP-4</t>
+  </si>
+  <si>
+    <t>Ideal Diode</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/Maxim-Integrated/MAX40203ANS%2bT?qs=%2Fha2pyFaduiyUjmstggs%2FpDAx01fEol6AToTpU8%2BG6ea%2BZQcqO1%2FMA%3D%3D</t>
+  </si>
+  <si>
+    <t>U7,U8</t>
+  </si>
+  <si>
+    <t>S2B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>JST PH</t>
+  </si>
+  <si>
+    <t>Power Connector</t>
+  </si>
+  <si>
+    <t>2 pin</t>
+  </si>
+  <si>
+    <t>https://au.rs-online.com/web/p/pcb-headers/6881353/?ef_id=CjwKCAiAxp-ABhALEiwAXm6IyZ8qSnMDTzShJ49BPfvH4CgX4PDyMGrSWV8Q3EN7f2NbtawTzHZaGBoCQJ0QAvD_BwE:G:s&amp;s_kwcid=AL!8733!3!462107463577!!!g!339884021015!&amp;cm_mmc=AU-PLA-DS3A-_-google-_-PLA_AU_EN_Connectors_Whoop-_-(AU:Whoop!)+PCB+Headers+(3)-_-6881353&amp;matchtype=&amp;pla-339884021015&amp;gclid=CjwKCAiAxp-ABhALEiwAXm6IyZ8qSnMDTzShJ49BPfvH4CgX4PDyMGrSWV8Q3EN7f2NbtawTzHZaGBoCQJ0QAvD_BwE&amp;gclsrc=aw.ds</t>
   </si>
 </sst>
 </file>
@@ -410,12 +431,19 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,32 +510,33 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -785,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H2:H33"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -810,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -819,13 +848,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -833,864 +862,889 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>1.25</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <f>G2</f>
         <v>1.25</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>49</v>
+      <c r="C3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <f>G3*F3</f>
         <v>0.67600000000000005</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>69</v>
+      <c r="A4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H34" si="0">G4*F4</f>
+        <v>0.93</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="H4" s="15">
-        <f t="shared" ref="H4:H33" si="0">G4*F4</f>
-        <v>0.93</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="H5" s="15">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="F6">
         <v>9</v>
       </c>
-      <c r="G6" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="G6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="G7" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>16</v>
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="G8" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="G9" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>75</v>
+      <c r="A10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="G10" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="D13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="15">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="G14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>1.5</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f>F15*G15</f>
         <v>1.5</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>37</v>
+      <c r="I15" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="14" t="s">
-        <v>84</v>
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>2.5</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f>F16*G16</f>
         <v>2.5</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="15"/>
+      <c r="E17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
+        <v>129</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="G18" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="H18" s="9">
         <f>F18*G18</f>
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>7</v>
+        <v>0.98</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>88</v>
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>1.46</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f>F19*G19</f>
         <v>1.46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="I20" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="14" t="s">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="D21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H20" s="15">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="G21" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="14">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>97</v>
+      <c r="A22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="G22" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="14">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>99</v>
+      <c r="A23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H23" s="15">
+      <c r="G23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="12">
+      <c r="A24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="11">
         <v>6</v>
       </c>
-      <c r="G24" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="G24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="14">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="12">
+      <c r="A25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="11">
         <v>3</v>
       </c>
-      <c r="G25" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="15">
+      <c r="G25" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="14">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.87</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="I26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0.87</v>
-      </c>
-      <c r="H26" s="15">
-        <f t="shared" si="0"/>
-        <v>0.87</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="C27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="I27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="14" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="H28" s="14">
+        <f t="shared" si="0"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="0"/>
+        <v>1.28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="0"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
         <v>0.54</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H32" s="14">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-      <c r="I27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="H28" s="15">
-        <f t="shared" si="0"/>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="I28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1.28</v>
-      </c>
-      <c r="H29" s="15">
-        <f t="shared" si="0"/>
-        <v>1.28</v>
-      </c>
-      <c r="I29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="H30" s="15">
-        <f t="shared" si="0"/>
-        <v>33.799999999999997</v>
-      </c>
-      <c r="I30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1.02</v>
-      </c>
-      <c r="H31" s="15">
-        <f t="shared" si="0"/>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="14" t="s">
+      <c r="I32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1">
+      <c r="A33" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="11">
+        <v>2</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1.86</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0.54</v>
-      </c>
-      <c r="H32" s="15">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="I32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
         <v>0.43</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H34" s="14">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>47</v>
+      <c r="I34" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I2" r:id="rId5" xr:uid="{05BE8FFE-9711-4132-A027-6EEBA95AE9F9}"/>
-    <hyperlink ref="I3" r:id="rId6" xr:uid="{DB12BA53-3836-467C-89FC-96EDD0E12E79}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{05BE8FFE-9711-4132-A027-6EEBA95AE9F9}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{DB12BA53-3836-467C-89FC-96EDD0E12E79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/nano/EDA/BoSLnano BOM Rev 0.1.0.xlsx
+++ b/nano/EDA/BoSLnano BOM Rev 0.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Repositories\BoSL-nano\nano\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D25860-2177-43D5-A85C-C40F6BF30B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641CB869-243A-43A8-AE91-7694A3A36508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,7 +817,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/nano/EDA/BoSLnano BOM Rev 0.1.0.xlsx
+++ b/nano/EDA/BoSLnano BOM Rev 0.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Repositories\BoSL-nano\nano\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641CB869-243A-43A8-AE91-7694A3A36508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D0DA8-4C0E-4A52-8B6B-6B12D1DFBE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
   <si>
     <t>Part Number</t>
   </si>
@@ -37,15 +37,9 @@
     <t xml:space="preserve">Supplier </t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>Voltage Regulator</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>QTY per board</t>
   </si>
   <si>
-    <t>I1</t>
-  </si>
-  <si>
     <t>SIM Card Holder</t>
   </si>
   <si>
@@ -142,12 +133,6 @@
     <t>0805</t>
   </si>
   <si>
-    <t>Pin Headers</t>
-  </si>
-  <si>
-    <t>0.1 inch pitch</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -223,15 +208,9 @@
     <t>C1</t>
   </si>
   <si>
-    <t>C3, C6, C7, C8, C10, C11, C12, C15, C18</t>
-  </si>
-  <si>
     <t>15 pF</t>
   </si>
   <si>
-    <t>C9,C14</t>
-  </si>
-  <si>
     <t>C17</t>
   </si>
   <si>
@@ -268,12 +247,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>J2,J3,J6,J7</t>
-  </si>
-  <si>
-    <t>1x07, 1x04, 1x10,1x04</t>
-  </si>
-  <si>
     <t>J8</t>
   </si>
   <si>
@@ -310,12 +283,6 @@
     <t>R4</t>
   </si>
   <si>
-    <t>100 Ω</t>
-  </si>
-  <si>
-    <t>R9, R10, R11</t>
-  </si>
-  <si>
     <t>SKTHAHE010</t>
   </si>
   <si>
@@ -379,9 +346,6 @@
     <t>GNSS LNA</t>
   </si>
   <si>
-    <t>R7, R8, R12, R13, R14, R15</t>
-  </si>
-  <si>
     <t>SOT-353</t>
   </si>
   <si>
@@ -406,9 +370,6 @@
     <t>https://au.mouser.com/ProductDetail/Maxim-Integrated/MAX40203ANS%2bT?qs=%2Fha2pyFaduiyUjmstggs%2FpDAx01fEol6AToTpU8%2BG6ea%2BZQcqO1%2FMA%3D%3D</t>
   </si>
   <si>
-    <t>U7,U8</t>
-  </si>
-  <si>
     <t>S2B-PH-SM4-TB(LF)(SN)</t>
   </si>
   <si>
@@ -421,7 +382,64 @@
     <t>2 pin</t>
   </si>
   <si>
-    <t>https://au.rs-online.com/web/p/pcb-headers/6881353/?ef_id=CjwKCAiAxp-ABhALEiwAXm6IyZ8qSnMDTzShJ49BPfvH4CgX4PDyMGrSWV8Q3EN7f2NbtawTzHZaGBoCQJ0QAvD_BwE:G:s&amp;s_kwcid=AL!8733!3!462107463577!!!g!339884021015!&amp;cm_mmc=AU-PLA-DS3A-_-google-_-PLA_AU_EN_Connectors_Whoop-_-(AU:Whoop!)+PCB+Headers+(3)-_-6881353&amp;matchtype=&amp;pla-339884021015&amp;gclid=CjwKCAiAxp-ABhALEiwAXm6IyZ8qSnMDTzShJ49BPfvH4CgX4PDyMGrSWV8Q3EN7f2NbtawTzHZaGBoCQJ0QAvD_BwE&amp;gclsrc=aw.ds</t>
+    <t>C3, C6, C7, C9, C10, C11, C12, C15, C18</t>
+  </si>
+  <si>
+    <t>C8,C14</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>100 kΩ</t>
+  </si>
+  <si>
+    <t>R9, R14, R15, R16</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>3.3 MΩ</t>
+  </si>
+  <si>
+    <t>12 MΩ</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>U1,U2</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>18 kΩ</t>
+  </si>
+  <si>
+    <t>https://au.element14.com/jst-japan-solderless-terminals/s2b-ph-sm4-tb-lf-sn/connector-header-smt-r-a-2mm-2way/dp/9492615?gclid=Cj0KCQiA3smABhCjARIsAKtrg6Issgw3kgPRJWPwdHZI-rEVRCtPuPtlz9ibve05kI0woMzJ9iU2vH0aAtpEEALw_wcB&amp;mckv=sEv4cY2Cq_dc%7Cpcrid%7C420899046195%7Cpkw%7Cs2b-ph-sm4-tb%20lf%20sn%7Cpmt%7Cp%7Cslid%7C%7Cproduct%7C%7Cpgrid%7C28414561008%7Cptaid%7Ckwd-25091951335%7C&amp;CMP=KNC-GAU-GEN-SKU-HVHC-JST</t>
+  </si>
+  <si>
+    <t>R7, R8, R12, R17</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/Infineon-Technologies/BGA524N6E6327XTSA1?qs=/ha2pyFadugDH/2XLWEFcpGvc61KQ0dQD7b8IrMss9GiPYWJFU4UVKumD9iCjKu/</t>
   </si>
 </sst>
 </file>
@@ -522,21 +540,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -814,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -839,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -848,13 +866,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -862,889 +880,992 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1.25</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f>G2</f>
         <v>1.25</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>46</v>
+      <c r="A3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <f>G3*F3</f>
         <v>0.67600000000000005</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4:H37" si="0">G4*F4</f>
+        <v>0.93</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="H4" s="14">
-        <f t="shared" ref="H4:H34" si="0">G4*F4</f>
-        <v>0.93</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>63</v>
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>0.16</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>15</v>
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F6">
         <v>9</v>
       </c>
-      <c r="G6" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="G6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>68</v>
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="G7" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="G8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="G10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.46</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="E12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" ref="H12" si="1">G12*F12</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="10" customFormat="1">
+      <c r="A15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="13">
+        <f>G15*F15</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="H15" s="9">
-        <f>F15*G15</f>
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>2.5</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f>F16*G16</f>
         <v>2.5</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="B17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="H17" s="8">
+        <f>F17*G17</f>
+        <v>0.98</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1">
       <c r="A18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>132</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18"/>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="9">
-        <v>0.98</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="G18" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="8">
         <f>F18*G18</f>
-        <v>0.98</v>
+        <v>1.5</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>85</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>1.46</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <f>F19*G19</f>
         <v>1.46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="I20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>91</v>
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H21" s="14">
+      <c r="G21" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="13">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>94</v>
+      <c r="A22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="14">
+      <c r="G22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="13">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10">
+        <v>4</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="10">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="10" customFormat="1">
+      <c r="A26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" ref="H26" si="2">G26*F26</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="10" customFormat="1">
+      <c r="A27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" ref="H27" si="3">G27*F27</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="10" customFormat="1">
+      <c r="A28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" ref="H28" si="4">G28*F28</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="10" customFormat="1">
+      <c r="A30" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1.86</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="B32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="0"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="11">
-        <v>6</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="13" t="s">
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="0"/>
+        <v>1.28</v>
+      </c>
+      <c r="I33" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="11">
-        <v>3</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0.87</v>
-      </c>
-      <c r="H26" s="14">
-        <f t="shared" si="0"/>
-        <v>0.87</v>
-      </c>
-      <c r="I26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="13" t="s">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="0"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I34" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="I35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
         <v>0.54</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H36" s="13">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-      <c r="I27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="H28" s="14">
-        <f t="shared" si="0"/>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="I28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="13" t="s">
+      <c r="I36" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="13" t="s">
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="H29" s="14">
-        <f t="shared" si="0"/>
-        <v>1.28</v>
-      </c>
-      <c r="I29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="H30" s="14">
-        <f t="shared" si="0"/>
-        <v>33.799999999999997</v>
-      </c>
-      <c r="I30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1.02</v>
-      </c>
-      <c r="H31" s="14">
-        <f t="shared" si="0"/>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0.54</v>
-      </c>
-      <c r="H32" s="14">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="I32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="11" customFormat="1">
-      <c r="A33" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="11">
-        <v>2</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1.86</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
         <v>0.43</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H37" s="13">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>44</v>
+      <c r="I37" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="I16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="I2" r:id="rId4" xr:uid="{05BE8FFE-9711-4132-A027-6EEBA95AE9F9}"/>
     <hyperlink ref="I3" r:id="rId5" xr:uid="{DB12BA53-3836-467C-89FC-96EDD0E12E79}"/>
+    <hyperlink ref="I17" r:id="rId6" display="https://au.element14.com/jst-japan-solderless-terminals/s2b-ph-sm4-tb-lf-sn/connector-header-smt-r-a-2mm-2way/dp/9492615?gclid=Cj0KCQiA3smABhCjARIsAKtrg6Issgw3kgPRJWPwdHZI-rEVRCtPuPtlz9ibve05kI0woMzJ9iU2vH0aAtpEEALw_wcB&amp;mckv=sEv4cY2Cq_dc%7Cpcrid%7C420899046195%7Cpkw%7Cs2b-ph-sm4-tb%20lf%20sn%7Cpmt%7Cp%7Cslid%7C%7Cproduct%7C%7Cpgrid%7C28414561008%7Cptaid%7Ckwd-25091951335%7C&amp;CMP=KNC-GAU-GEN-SKU-HVHC-JST" xr:uid="{2CDCC498-1525-495A-9534-17E6426C66CF}"/>
+    <hyperlink ref="I32" r:id="rId7" xr:uid="{C0F95E18-72FD-482D-99FF-4DCD1D776553}"/>
+    <hyperlink ref="I37" r:id="rId8" xr:uid="{54E7ABE2-2A78-4802-A0E9-6676D36D8299}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/nano/EDA/BoSLnano BOM Rev 0.1.0.xlsx
+++ b/nano/EDA/BoSLnano BOM Rev 0.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Repositories\BoSL-nano\nano\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D0DA8-4C0E-4A52-8B6B-6B12D1DFBE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FEABE7-5661-4172-94FB-58859EB6680C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,7 +835,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
